--- a/data/trans_orig/CONS_TIR-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_TIR-Estudios-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides en País Vasco</t>
+          <t>Consumo de medicamentos para la tiroides en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides en Andalucia</t>
+          <t>Consumo de medicamentos para la tiroides en Andalucia (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides en C.Valenciana</t>
+          <t>Consumo de medicamentos para la tiroides en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_TIR-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_TIR-Estudios-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>2331</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>952</t>
+          <t>1248</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3378</t>
+          <t>4389</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10380</t>
+          <t>9917</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7716</t>
+          <t>7500</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>13402</t>
+          <t>12530</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>12325</t>
+          <t>12248</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>9691</t>
+          <t>9560</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>15969</t>
+          <t>15726</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>7,71%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86120</t>
+          <t>80211</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84686</t>
+          <t>78153</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>87112</t>
+          <t>81294</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,92%</t>
+          <t>98,49%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>117364</t>
+          <t>111535</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>114342</t>
+          <t>108922</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>120028</t>
+          <t>113952</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>91,84%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,51%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>93,96%</t>
+          <t>93,82%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>203484</t>
+          <t>191746</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>199840</t>
+          <t>188268</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>206118</t>
+          <t>194434</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>94,29%</t>
+          <t>94,0%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,51%</t>
+          <t>95,31%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6313</t>
+          <t>5977</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4436</t>
+          <t>4206</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9452</t>
+          <t>8367</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32551</t>
+          <t>29457</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27215</t>
+          <t>25295</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>37530</t>
+          <t>34324</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>38864</t>
+          <t>35434</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>34304</t>
+          <t>29928</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>44976</t>
+          <t>40578</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>4,48%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>447178</t>
+          <t>455702</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>444039</t>
+          <t>453312</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>449055</t>
+          <t>457473</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>98,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>98,19%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,02%</t>
+          <t>99,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>399251</t>
+          <t>414900</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>394272</t>
+          <t>410033</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>404587</t>
+          <t>419062</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>93,37%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,31%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>846429</t>
+          <t>870601</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>840317</t>
+          <t>865457</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>850989</t>
+          <t>876107</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,92%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,13%</t>
+          <t>96,7%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>616</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2117</t>
+          <t>3052</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12063</t>
+          <t>13551</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9398</t>
+          <t>10490</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15351</t>
+          <t>17258</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,22 +1491,22 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>13038</t>
+          <t>15051</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10309</t>
+          <t>12026</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>16617</t>
+          <t>18909</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>150650</t>
+          <t>174061</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>149508</t>
+          <t>172509</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>151187</t>
+          <t>174945</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,36%</t>
+          <t>99,15%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,6%</t>
+          <t>98,26%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>99,65%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>182174</t>
+          <t>214443</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>178886</t>
+          <t>210736</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>184839</t>
+          <t>217504</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,79%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,1%</t>
+          <t>92,43%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>95,4%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,27 +1604,27 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>332825</t>
+          <t>388504</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>329246</t>
+          <t>384646</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>335554</t>
+          <t>391529</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,23%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,27 +1764,27 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9233</t>
+          <t>9809</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6608</t>
+          <t>7210</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12245</t>
+          <t>12753</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>54994</t>
+          <t>52924</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>48736</t>
+          <t>47350</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>61052</t>
+          <t>59647</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>64227</t>
+          <t>62733</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>57793</t>
+          <t>56112</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>72047</t>
+          <t>69852</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,61%</t>
         </is>
       </c>
     </row>
@@ -1877,22 +1877,22 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>683948</t>
+          <t>709972</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>680936</t>
+          <t>707028</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>686573</t>
+          <t>712571</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>98,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,05%</t>
+          <t>99,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>698790</t>
+          <t>740879</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>692732</t>
+          <t>734156</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>705048</t>
+          <t>746453</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>92,7%</t>
+          <t>93,33%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,9%</t>
+          <t>92,49%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,53%</t>
+          <t>94,04%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1382738</t>
+          <t>1450851</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1374918</t>
+          <t>1443732</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1389172</t>
+          <t>1457472</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>96,29%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2594</t>
+          <t>2419</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11955</t>
+          <t>11281</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2366,12 +2366,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2386,12 +2386,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>32491</t>
+          <t>32059</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>62744</t>
+          <t>62268</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2401,12 +2401,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>36477</t>
+          <t>37050</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>66513</t>
+          <t>66218</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2436,12 +2436,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>10,62%</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>216342</t>
+          <t>217016</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>225703</t>
+          <t>225878</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>95,06%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>98,94%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>332346</t>
+          <t>332822</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>362599</t>
+          <t>363031</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2514,12 +2514,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,12%</t>
+          <t>84,24%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>91,78%</t>
+          <t>91,89%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>556874</t>
+          <t>557169</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>586910</t>
+          <t>586337</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>89,33%</t>
+          <t>89,38%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>94,15%</t>
+          <t>94,06%</t>
         </is>
       </c>
     </row>
@@ -2694,12 +2694,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8609</t>
+          <t>9160</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34626</t>
+          <t>35106</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>98726</t>
+          <t>100904</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>659816</t>
+          <t>737091</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>47,61%</t>
+          <t>53,19%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -2764,12 +2764,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>107283</t>
+          <t>107440</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>946311</t>
+          <t>928001</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>33,85%</t>
+          <t>33,2%</t>
         </is>
       </c>
     </row>
@@ -2807,12 +2807,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1374767</t>
+          <t>1374287</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1400784</t>
+          <t>1400233</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -2822,12 +2822,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,54%</t>
+          <t>97,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>99,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -2842,12 +2842,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>725995</t>
+          <t>648720</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1287085</t>
+          <t>1284907</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>52,39%</t>
+          <t>46,81%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>92,88%</t>
+          <t>92,72%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1848893</t>
+          <t>1867203</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2687921</t>
+          <t>2687764</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>66,15%</t>
+          <t>66,8%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
@@ -3037,12 +3037,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2160</t>
+          <t>2178</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10044</t>
+          <t>10162</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>25703</t>
+          <t>25490</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>44284</t>
+          <t>43586</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>29459</t>
+          <t>29911</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>49564</t>
+          <t>49770</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3122,12 +3122,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,51%</t>
         </is>
       </c>
     </row>
@@ -3150,12 +3150,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>449757</t>
+          <t>449639</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>457641</t>
+          <t>457623</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -3185,12 +3185,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>398443</t>
+          <t>399141</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>417024</t>
+          <t>417237</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3200,12 +3200,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,0%</t>
+          <t>90,16%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>94,24%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -3220,12 +3220,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>852964</t>
+          <t>852758</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>873069</t>
+          <t>872617</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>94,49%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>96,69%</t>
         </is>
       </c>
     </row>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16924</t>
+          <t>17209</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>46394</t>
+          <t>44491</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3395,12 +3395,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>175831</t>
+          <t>173095</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>903748</t>
+          <t>871300</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3430,12 +3430,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>40,64%</t>
+          <t>39,18%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3450,12 +3450,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>193044</t>
+          <t>193270</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>1126888</t>
+          <t>1056263</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>26,08%</t>
+          <t>24,44%</t>
         </is>
       </c>
     </row>
@@ -3493,12 +3493,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2051097</t>
+          <t>2053000</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2080567</t>
+          <t>2080282</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3508,12 +3508,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,19%</t>
+          <t>99,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1319881</t>
+          <t>1352329</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2047798</t>
+          <t>2050534</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>59,36%</t>
+          <t>60,82%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>92,09%</t>
+          <t>92,22%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -3563,12 +3563,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>3194231</t>
+          <t>3264856</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4128075</t>
+          <t>4127849</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>73,92%</t>
+          <t>75,56%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">

--- a/data/trans_orig/CONS_TIR-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_TIR-Estudios-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para la tiroides en Andalucia (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,72 +730,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2331</t>
+          <t>6291</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1248</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4389</t>
+          <t>12224</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9917</t>
+          <t>40101</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7500</t>
+          <t>31334</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12530</t>
+          <t>50827</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>12248</t>
+          <t>46391</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>9560</t>
+          <t>36921</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>15726</t>
+          <t>58889</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>8,56%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>283</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80211</t>
+          <t>249101</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78153</t>
+          <t>243168</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>81294</t>
+          <t>252783</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,18%</t>
+          <t>97,54%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,68%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,49%</t>
+          <t>98,98%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>631</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>111535</t>
+          <t>392496</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>108922</t>
+          <t>381770</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>113952</t>
+          <t>401263</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>91,84%</t>
+          <t>90,73%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,68%</t>
+          <t>88,25%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>93,82%</t>
+          <t>92,76%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1187</t>
+          <t>914</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>191746</t>
+          <t>641598</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>188268</t>
+          <t>629100</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>194434</t>
+          <t>651068</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>93,26%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,29%</t>
+          <t>91,44%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>94,63%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>695</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>985</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5977</t>
+          <t>17978</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4206</t>
+          <t>10141</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8367</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>152</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29457</t>
+          <t>105859</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25295</t>
+          <t>90794</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34324</t>
+          <t>125243</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>167</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>35434</t>
+          <t>123837</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>29928</t>
+          <t>103634</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>40578</t>
+          <t>145335</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>5,68%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2614</t>
+          <t>1096</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>455702</t>
+          <t>1269709</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>453312</t>
+          <t>1255670</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>457473</t>
+          <t>1277546</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,19%</t>
+          <t>97,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,09%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2320</t>
+          <t>1487</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>414900</t>
+          <t>1164882</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>410033</t>
+          <t>1145498</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>419062</t>
+          <t>1179947</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,37%</t>
+          <t>91,67%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,28%</t>
+          <t>90,14%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>4934</t>
+          <t>2583</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>870601</t>
+          <t>2434591</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>865457</t>
+          <t>2413093</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>876107</t>
+          <t>2454794</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>95,16%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>94,32%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>95,95%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5150</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>6663</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>3106</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3052</t>
+          <t>13599</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13551</t>
+          <t>37817</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10490</t>
+          <t>28693</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17258</t>
+          <t>48700</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>65</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>15051</t>
+          <t>44480</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>12026</t>
+          <t>35023</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>18909</t>
+          <t>56577</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>5,63%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>479</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>174061</t>
+          <t>503216</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>172509</t>
+          <t>496280</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>174945</t>
+          <t>506773</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,15%</t>
+          <t>98,69%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,26%</t>
+          <t>97,33%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,65%</t>
+          <t>99,39%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>608</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>214443</t>
+          <t>457365</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>210736</t>
+          <t>446482</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>217504</t>
+          <t>466489</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,43%</t>
+          <t>90,17%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,4%</t>
+          <t>94,21%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>1087</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>388504</t>
+          <t>960582</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>384646</t>
+          <t>948485</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>391529</t>
+          <t>970039</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,27%</t>
+          <t>95,57%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>94,37%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,02%</t>
+          <t>96,52%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>665</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495182</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495182</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495182</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>1152</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005062</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005062</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005062</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9809</t>
+          <t>30932</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7210</t>
+          <t>20187</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12753</t>
+          <t>44498</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>273</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>52924</t>
+          <t>183777</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>47350</t>
+          <t>162920</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>59647</t>
+          <t>209244</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>303</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>62733</t>
+          <t>214709</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>56112</t>
+          <t>189801</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>69852</t>
+          <t>241750</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>5,69%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4005</t>
+          <t>1858</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>709972</t>
+          <t>2022027</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>707028</t>
+          <t>2008461</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>712571</t>
+          <t>2032772</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,64%</t>
+          <t>98,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>97,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,0%</t>
+          <t>99,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4141</t>
+          <t>2726</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>740879</t>
+          <t>2014743</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>734156</t>
+          <t>1989276</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>746453</t>
+          <t>2035600</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,33%</t>
+          <t>91,64%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,49%</t>
+          <t>90,48%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>8146</t>
+          <t>4584</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1450851</t>
+          <t>4036770</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1443732</t>
+          <t>4009729</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1457472</t>
+          <t>4061678</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>94,95%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,39%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,29%</t>
+          <t>95,54%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>1888</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>2999</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198520</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198520</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198520</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8514</t>
+          <t>4887</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251479</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251479</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251479</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides en Andalucia (tasa de respuesta: 99,88%)</t>
+          <t>Consumo de medicamentos para la tiroides en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2341,107 +2341,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5845</t>
+          <t>4573</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2419</t>
+          <t>2409</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11281</t>
+          <t>7594</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>41908</t>
+          <t>25177</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>32059</t>
+          <t>19632</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>62268</t>
+          <t>32444</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>74</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>47753</t>
+          <t>29750</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>37050</t>
+          <t>23527</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>66218</t>
+          <t>36710</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>7,5%</t>
         </is>
       </c>
     </row>
@@ -2454,107 +2454,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>540</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>222452</t>
+          <t>211223</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>217016</t>
+          <t>208202</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>225878</t>
+          <t>213387</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>96,48%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,94%</t>
+          <t>98,88%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>583</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>353182</t>
+          <t>248504</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>332822</t>
+          <t>241237</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>363031</t>
+          <t>254049</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>89,39%</t>
+          <t>90,8%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,24%</t>
+          <t>88,15%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>91,89%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>914</t>
+          <t>1123</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>575634</t>
+          <t>459728</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>557169</t>
+          <t>452768</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>586337</t>
+          <t>465951</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>92,34%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>89,38%</t>
+          <t>92,5%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>95,19%</t>
         </is>
       </c>
     </row>
@@ -2567,22 +2567,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2602,22 +2602,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>644</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2637,22 +2637,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2684,107 +2684,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18332</t>
+          <t>12659</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9160</t>
+          <t>8569</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35106</t>
+          <t>19066</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>295376</t>
+          <t>56837</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>100904</t>
+          <t>45759</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>737091</t>
+          <t>68700</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,31%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>53,19%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>138</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>313707</t>
+          <t>69496</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>107440</t>
+          <t>57912</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>928001</t>
+          <t>83130</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>4,8%</t>
         </is>
       </c>
     </row>
@@ -2797,107 +2797,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1096</t>
+          <t>1610</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1391061</t>
+          <t>849359</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1374287</t>
+          <t>842952</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1400233</t>
+          <t>853449</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,7%</t>
+          <t>98,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,51%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,35%</t>
+          <t>99,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1487</t>
+          <t>1411</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1090435</t>
+          <t>811343</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>648720</t>
+          <t>799480</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1284907</t>
+          <t>822421</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>78,69%</t>
+          <t>93,45%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>46,81%</t>
+          <t>92,09%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>92,72%</t>
+          <t>94,73%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2583</t>
+          <t>3021</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2481497</t>
+          <t>1660702</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1867203</t>
+          <t>1647068</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2687764</t>
+          <t>1672286</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>88,78%</t>
+          <t>95,98%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>66,8%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>96,65%</t>
         </is>
       </c>
     </row>
@@ -2910,22 +2910,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2945,22 +2945,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2980,22 +2980,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>3159</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3027,107 +3027,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5016</t>
+          <t>7959</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2178</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10162</t>
+          <t>14214</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>33631</t>
+          <t>18517</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>25490</t>
+          <t>12780</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>43586</t>
+          <t>26138</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>49</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>38648</t>
+          <t>26475</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>29911</t>
+          <t>19021</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>49770</t>
+          <t>34687</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>4,36%</t>
         </is>
       </c>
     </row>
@@ -3140,107 +3140,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>640</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>454785</t>
+          <t>370594</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>449639</t>
+          <t>364339</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>457623</t>
+          <t>374155</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,91%</t>
+          <t>97,9%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>96,25%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,53%</t>
+          <t>98,84%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>409096</t>
+          <t>398358</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>399141</t>
+          <t>390737</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>417237</t>
+          <t>404095</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,16%</t>
+          <t>93,73%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>94,24%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1087</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>863880</t>
+          <t>768953</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>852758</t>
+          <t>760741</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>872617</t>
+          <t>776407</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>96,67%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,49%</t>
+          <t>95,64%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>97,61%</t>
         </is>
       </c>
     </row>
@@ -3253,22 +3253,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>655</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3288,22 +3288,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>700</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>442727</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>442727</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>442727</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3323,22 +3323,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1152</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>902528</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>902528</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>902528</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3370,107 +3370,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>29193</t>
+          <t>25191</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17209</t>
+          <t>18805</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>44491</t>
+          <t>33101</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>207</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>370915</t>
+          <t>100530</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>173095</t>
+          <t>87447</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>871300</t>
+          <t>115355</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>39,18%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>261</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>400108</t>
+          <t>125722</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>193270</t>
+          <t>110496</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>1056263</t>
+          <t>142846</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>4,74%</t>
         </is>
       </c>
     </row>
@@ -3483,107 +3483,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1858</t>
+          <t>2790</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2068298</t>
+          <t>1431176</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2053000</t>
+          <t>1423266</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2080282</t>
+          <t>1437562</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>98,27%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>98,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2726</t>
+          <t>2660</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1852714</t>
+          <t>1458207</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1352329</t>
+          <t>1443382</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2050534</t>
+          <t>1471290</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>83,32%</t>
+          <t>93,55%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>60,82%</t>
+          <t>92,6%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>92,22%</t>
+          <t>94,39%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4584</t>
+          <t>5450</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>3921011</t>
+          <t>2889382</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>3264856</t>
+          <t>2872258</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4127849</t>
+          <t>2904608</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>90,74%</t>
+          <t>95,83%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>75,56%</t>
+          <t>95,26%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,53%</t>
+          <t>96,34%</t>
         </is>
       </c>
     </row>
@@ -3596,22 +3596,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>2844</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3631,22 +3631,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2999</t>
+          <t>2867</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2223629</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2223629</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2223629</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3666,22 +3666,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4887</t>
+          <t>5711</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>4321119</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4321119</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>4321119</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos para la tiroides en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3952,107 +3952,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4573</t>
+          <t>2331</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2409</t>
+          <t>1248</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7594</t>
+          <t>4389</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>25177</t>
+          <t>9917</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>19632</t>
+          <t>7500</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>32444</t>
+          <t>12530</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>71</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>29750</t>
+          <t>12248</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>23527</t>
+          <t>9560</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>36710</t>
+          <t>15726</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>7,71%</t>
         </is>
       </c>
     </row>
@@ -4065,107 +4065,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>491</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>211223</t>
+          <t>80211</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>208202</t>
+          <t>78153</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>213387</t>
+          <t>81294</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,88%</t>
+          <t>98,49%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>696</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>248504</t>
+          <t>111535</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>241237</t>
+          <t>108922</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>254049</t>
+          <t>113952</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>90,8%</t>
+          <t>91,84%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>88,15%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>93,82%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>1187</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>459728</t>
+          <t>191746</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>452768</t>
+          <t>188268</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>465951</t>
+          <t>194434</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>94,0%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,5%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>95,31%</t>
         </is>
       </c>
     </row>
@@ -4178,22 +4178,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>503</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4213,22 +4213,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>755</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4248,22 +4248,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4295,107 +4295,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12659</t>
+          <t>5977</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8569</t>
+          <t>4206</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19066</t>
+          <t>8367</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>183</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>56837</t>
+          <t>29457</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>45759</t>
+          <t>25295</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>68700</t>
+          <t>34324</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>216</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>69496</t>
+          <t>35434</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>57912</t>
+          <t>29928</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>83130</t>
+          <t>40578</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,48%</t>
         </is>
       </c>
     </row>
@@ -4408,107 +4408,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1610</t>
+          <t>2614</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>849359</t>
+          <t>455702</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>842952</t>
+          <t>453312</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>853449</t>
+          <t>457473</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,53%</t>
+          <t>98,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>98,19%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>99,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>2320</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>811343</t>
+          <t>414900</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>799480</t>
+          <t>410033</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>822421</t>
+          <t>419062</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,45%</t>
+          <t>93,37%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,09%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>94,73%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>3021</t>
+          <t>4934</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>1660702</t>
+          <t>870601</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1647068</t>
+          <t>865457</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1672286</t>
+          <t>876107</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>96,7%</t>
         </is>
       </c>
     </row>
@@ -4521,22 +4521,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>2647</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4556,22 +4556,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4591,22 +4591,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>3159</t>
+          <t>5150</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4638,107 +4638,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7959</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4398</t>
+          <t>616</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14214</t>
+          <t>3052</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18517</t>
+          <t>13551</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12780</t>
+          <t>10490</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>26138</t>
+          <t>17258</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>81</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>26475</t>
+          <t>15051</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>19021</t>
+          <t>12026</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>34687</t>
+          <t>18909</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -4751,107 +4751,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>900</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>370594</t>
+          <t>174061</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>364339</t>
+          <t>172509</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>374155</t>
+          <t>174945</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,9%</t>
+          <t>99,15%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,25%</t>
+          <t>98,26%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,84%</t>
+          <t>99,65%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>398358</t>
+          <t>214443</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>390737</t>
+          <t>210736</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>404095</t>
+          <t>217504</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>93,73%</t>
+          <t>92,43%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>95,4%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1306</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>768953</t>
+          <t>388504</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>760741</t>
+          <t>384646</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>776407</t>
+          <t>391529</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,67%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,64%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>97,02%</t>
         </is>
       </c>
     </row>
@@ -4864,22 +4864,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>907</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4899,22 +4899,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4934,22 +4934,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4981,107 +4981,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25191</t>
+          <t>9809</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18805</t>
+          <t>7210</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33101</t>
+          <t>12753</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>316</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>100530</t>
+          <t>52924</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>87447</t>
+          <t>47350</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>115355</t>
+          <t>59647</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>368</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>125722</t>
+          <t>62733</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>110496</t>
+          <t>56112</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>142846</t>
+          <t>69852</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,61%</t>
         </is>
       </c>
     </row>
@@ -5094,107 +5094,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2790</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1431176</t>
+          <t>709972</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1423266</t>
+          <t>707028</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1437562</t>
+          <t>712571</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,27%</t>
+          <t>98,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,73%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>99,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2660</t>
+          <t>4141</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1458207</t>
+          <t>740879</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1443382</t>
+          <t>734156</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1471290</t>
+          <t>746453</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>93,33%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>92,49%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,39%</t>
+          <t>94,04%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>5450</t>
+          <t>8146</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2889382</t>
+          <t>1450851</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2872258</t>
+          <t>1443732</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>2904608</t>
+          <t>1457472</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,83%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,26%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>96,29%</t>
         </is>
       </c>
     </row>
@@ -5207,22 +5207,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2844</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5242,22 +5242,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5277,22 +5277,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>5711</t>
+          <t>8514</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
